--- a/partial/sliding_window_results_window_5.xlsx
+++ b/partial/sliding_window_results_window_5.xlsx
@@ -465,16 +465,16 @@
         <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>29.54</v>
+        <v>29.53999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>28.77159668602728</v>
+        <v>29.42570304870605</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7684033139727191</v>
+        <v>-0.1142969512939374</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5904436529242572</v>
+        <v>0.01306379307508869</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.55</v>
       </c>
       <c r="C3" t="n">
-        <v>29.90122115551857</v>
+        <v>29.50772666931152</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3512211555185694</v>
+        <v>-0.04227333068847372</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1233563000837991</v>
+        <v>0.001787034487497054</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.75</v>
       </c>
       <c r="C4" t="n">
-        <v>29.66499987532517</v>
+        <v>29.72051811218262</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.08500012467483486</v>
+        <v>-0.02948188781738281</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007225021194737471</v>
+        <v>0.0008691817092767451</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.84</v>
       </c>
       <c r="C5" t="n">
-        <v>30.5415314462977</v>
+        <v>29.87379264831543</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7015314462976967</v>
+        <v>0.03379264831542628</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4921463701445381</v>
+        <v>0.001141943080170082</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.81</v>
       </c>
       <c r="C6" t="n">
-        <v>30.41077861873373</v>
+        <v>29.8944149017334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.600778618733731</v>
+        <v>0.08441490173339616</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3609349487276097</v>
+        <v>0.007125875634658931</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.92</v>
       </c>
       <c r="C7" t="n">
-        <v>30.24578231115241</v>
+        <v>29.93996238708496</v>
       </c>
       <c r="D7" t="n">
-        <v>0.325782311152409</v>
+        <v>0.01996238708495923</v>
       </c>
       <c r="E7" t="n">
-        <v>0.106134114259805</v>
+        <v>0.0003984968981297471</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.98</v>
       </c>
       <c r="C8" t="n">
-        <v>29.62150842841587</v>
+        <v>30.07316398620605</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3584915715841319</v>
+        <v>0.09316398620605071</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1285162068968608</v>
+        <v>0.008679528325801206</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>30.04</v>
+        <v>30.03999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>29.90509423108006</v>
+        <v>30.21114921569824</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1349057689199356</v>
+        <v>0.1711492156982501</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01819956648787905</v>
+        <v>0.02929205403412615</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>41</v>
       </c>
       <c r="B10" t="n">
-        <v>30.21</v>
+        <v>30.21000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>29.48238977579566</v>
+        <v>30.26265525817871</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7276102242043372</v>
+        <v>0.05265525817870298</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5294166383666858</v>
+        <v>0.002772576213865867</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.22</v>
       </c>
       <c r="C11" t="n">
-        <v>29.87582778898143</v>
+        <v>30.34427452087402</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3441722110185665</v>
+        <v>0.1242745208740246</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1184545108374087</v>
+        <v>0.01544415653846837</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.38</v>
       </c>
       <c r="C12" t="n">
-        <v>29.71312480306775</v>
+        <v>30.36523246765137</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.6668751969322457</v>
+        <v>-0.01476753234862827</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4447225282834215</v>
+        <v>0.0002180800116677822</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.44</v>
       </c>
       <c r="C13" t="n">
-        <v>30.38637470091635</v>
+        <v>30.50981712341309</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.05362529908365588</v>
+        <v>0.06981712341308821</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002875672701811543</v>
+        <v>0.00487443072167839</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.48</v>
       </c>
       <c r="C14" t="n">
-        <v>30.35189786770854</v>
+        <v>30.43168449401855</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1281021322914597</v>
+        <v>-0.04831550598144929</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01641015629761865</v>
+        <v>0.002334388118243462</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.69</v>
       </c>
       <c r="C15" t="n">
-        <v>30.59799747773</v>
+        <v>30.43945121765137</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.09200252226999694</v>
+        <v>-0.2505487823486305</v>
       </c>
       <c r="E15" t="n">
-        <v>0.008464464104041284</v>
+        <v>0.06277469233638144</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.75</v>
       </c>
       <c r="C16" t="n">
-        <v>30.22668918367056</v>
+        <v>30.4976634979248</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.5233108163294418</v>
+        <v>-0.2523365020751953</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2738542104873867</v>
+        <v>0.06367371027954505</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.94</v>
       </c>
       <c r="C17" t="n">
-        <v>30.66051695140128</v>
+        <v>30.65968132019043</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2794830485987241</v>
+        <v>-0.280318679809568</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07811077445403676</v>
+        <v>0.07857856225017913</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.95</v>
       </c>
       <c r="C18" t="n">
-        <v>30.93097425548262</v>
+        <v>30.76798057556152</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.01902574451737848</v>
+        <v>-0.1820194244384794</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0003619789544405575</v>
+        <v>0.03313107087291531</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.02</v>
       </c>
       <c r="C19" t="n">
-        <v>31.52768362082061</v>
+        <v>31.12988090515137</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5076836208206146</v>
+        <v>0.1098809051513712</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2577426588495296</v>
+        <v>0.01207381331688463</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.12</v>
       </c>
       <c r="C20" t="n">
-        <v>31.8954276512661</v>
+        <v>31.24157524108887</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7754276512660958</v>
+        <v>0.1215752410888626</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6012880423480539</v>
+        <v>0.01478053924581508</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.28</v>
       </c>
       <c r="C21" t="n">
-        <v>32.01428376739394</v>
+        <v>31.3477611541748</v>
       </c>
       <c r="D21" t="n">
-        <v>0.73428376739394</v>
+        <v>0.06776115417480355</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5391726510582378</v>
+        <v>0.004591574015101497</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.38</v>
       </c>
       <c r="C22" t="n">
-        <v>31.81616876501472</v>
+        <v>31.23878288269043</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4361687650147168</v>
+        <v>-0.1412171173095658</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1902431915744632</v>
+        <v>0.01994227422122366</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.58</v>
       </c>
       <c r="C23" t="n">
-        <v>32.19045575260361</v>
+        <v>31.39718437194824</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6104557526036132</v>
+        <v>-0.1828156280517561</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3726562258868438</v>
+        <v>0.03342155385995804</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="n">
-        <v>31.65</v>
+        <v>31.65000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>32.07760720707016</v>
+        <v>31.92793846130371</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4276072070701602</v>
+        <v>0.2779384613037053</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1828479235383429</v>
+        <v>0.07724978827187126</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.88</v>
       </c>
       <c r="C25" t="n">
-        <v>32.69388249805409</v>
+        <v>32.41188430786133</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8138824980540953</v>
+        <v>0.5318843078613327</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6624047206387744</v>
+        <v>0.2829009169491289</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.28</v>
       </c>
       <c r="C26" t="n">
-        <v>32.39883288137233</v>
+        <v>32.36374282836914</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1188328813723274</v>
+        <v>0.08374282836913949</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01412125369524963</v>
+        <v>0.007012861303263154</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.45</v>
       </c>
       <c r="C27" t="n">
-        <v>32.50268193461038</v>
+        <v>32.45510482788086</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0526819346103764</v>
+        <v>0.005104827880856533</v>
       </c>
       <c r="E27" t="n">
-        <v>0.002775386234291975</v>
+        <v>2.60592676931702e-05</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>23</v>
       </c>
       <c r="B28" t="n">
-        <v>32.85</v>
+        <v>32.84999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>32.74211580690621</v>
+        <v>32.71161270141602</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1078841930937884</v>
+        <v>-0.1383872985839787</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01163899911949782</v>
+        <v>0.01915104440937127</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>22</v>
       </c>
       <c r="B29" t="n">
-        <v>32.9</v>
+        <v>32.90000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>32.8855232564657</v>
+        <v>32.94222640991211</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.01447674353430273</v>
+        <v>0.04222640991210369</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0002095761033579758</v>
+        <v>0.001783069694065009</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>21</v>
       </c>
       <c r="B30" t="n">
-        <v>33.1</v>
+        <v>33.09999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>32.91331340906391</v>
+        <v>32.91791915893555</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1866865909360911</v>
+        <v>-0.1820808410644474</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0348518832353394</v>
+        <v>0.03315343268273657</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="n">
-        <v>33.4</v>
+        <v>33.40000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>33.83299115305665</v>
+        <v>33.66357040405273</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4329911530566477</v>
+        <v>0.2635704040527287</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1874813386253253</v>
+        <v>0.06946935789251867</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.7</v>
       </c>
       <c r="C32" t="n">
-        <v>33.74871538907802</v>
+        <v>33.69541549682617</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0487153890780192</v>
+        <v>-0.004584503173830967</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002373189133022792</v>
+        <v>2.101766935086621e-05</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>18</v>
       </c>
       <c r="B33" t="n">
-        <v>34.1</v>
+        <v>34.09999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>33.8940528257012</v>
+        <v>33.89573287963867</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2059471742987995</v>
+        <v>-0.2042671203613224</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0424142386016601</v>
+        <v>0.04172505646070699</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>17</v>
       </c>
       <c r="B34" t="n">
-        <v>34.4</v>
+        <v>34.40000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>34.07701773910097</v>
+        <v>34.42705917358398</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.3229822608990318</v>
+        <v>0.02705917358397869</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1043175408554503</v>
+        <v>0.0007321988750478901</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>34.9</v>
+        <v>34.90000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>34.6658757599753</v>
+        <v>35.06875228881836</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2341242400246983</v>
+        <v>0.1687522888183537</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05481415976714256</v>
+        <v>0.02847733498143306</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>35.3</v>
       </c>
       <c r="C36" t="n">
-        <v>35.7840420212037</v>
+        <v>35.66774368286133</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4840420212036989</v>
+        <v>0.367743682861331</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2342966782909621</v>
+        <v>0.1352354162844152</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>35.7</v>
       </c>
       <c r="C37" t="n">
-        <v>36.19699942473285</v>
+        <v>35.96606826782227</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4969994247328486</v>
+        <v>0.2660682678222628</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2470084281847825</v>
+        <v>0.07079232314193935</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>36.3</v>
       </c>
       <c r="C38" t="n">
-        <v>36.38994972819609</v>
+        <v>35.86572647094727</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08994972819608904</v>
+        <v>-0.4342735290527315</v>
       </c>
       <c r="E38" t="n">
-        <v>0.008090953602550296</v>
+        <v>0.1885934980359137</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>36.8</v>
       </c>
       <c r="C39" t="n">
-        <v>36.97987452478498</v>
+        <v>36.4784049987793</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1798745247849851</v>
+        <v>-0.3215950012207003</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03235484466662422</v>
+        <v>0.1034233448101422</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>37.3</v>
       </c>
       <c r="C40" t="n">
-        <v>37.02470801298504</v>
+        <v>37.2089958190918</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2752919870149526</v>
+        <v>-0.09100418090820028</v>
       </c>
       <c r="E40" t="n">
-        <v>0.07578567811464083</v>
+        <v>0.008281760942772444</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>10</v>
       </c>
       <c r="B41" t="n">
-        <v>37.9</v>
+        <v>37.90000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>37.96974537549301</v>
+        <v>37.99245071411133</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06974537549300663</v>
+        <v>0.09245071411132244</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00486441740266049</v>
+        <v>0.008547134539693474</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>38.5</v>
       </c>
       <c r="C42" t="n">
-        <v>38.60573691186258</v>
+        <v>38.43264389038086</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1057369118625786</v>
+        <v>-0.06735610961914062</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01118029453023472</v>
+        <v>0.004536845503025688</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>8</v>
       </c>
       <c r="B43" t="n">
-        <v>38.9</v>
+        <v>38.90000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>39.01080985958171</v>
+        <v>39.07284927368164</v>
       </c>
       <c r="D43" t="n">
-        <v>0.110809859581714</v>
+        <v>0.1728492736816349</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01227882498051917</v>
+        <v>0.02987687141226874</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>39.4</v>
+        <v>39.40000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>39.42546228338429</v>
+        <v>39.60612869262695</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02546228338429302</v>
+        <v>0.2061286926269474</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0006483278751420442</v>
+        <v>0.04248903792409458</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="n">
-        <v>39.9</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>39.7220449143099</v>
+        <v>39.64629745483398</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.177955085690094</v>
+        <v>-0.2537025451660213</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0316680125229687</v>
+        <v>0.06436498142371708</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>5</v>
       </c>
       <c r="B46" t="n">
-        <v>40.1</v>
+        <v>40.09999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>39.88261139275777</v>
+        <v>39.90364456176758</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2173886072422349</v>
+        <v>-0.1963554382324162</v>
       </c>
       <c r="E46" t="n">
-        <v>0.04725780655871865</v>
+        <v>0.03855545812344421</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>4</v>
       </c>
       <c r="B47" t="n">
-        <v>40.6</v>
+        <v>40.59999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>40.06105682113947</v>
+        <v>40.41103744506836</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.5389431788605279</v>
+        <v>-0.1889625549316349</v>
       </c>
       <c r="E47" t="n">
-        <v>0.290459750040291</v>
+        <v>0.03570684716629115</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>3</v>
       </c>
       <c r="B48" t="n">
-        <v>40.9</v>
+        <v>40.90000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>40.36163272153543</v>
+        <v>40.64894485473633</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.5383672784645697</v>
+        <v>-0.2510551452636776</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2898393265213475</v>
+        <v>0.06302868596336623</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>2</v>
       </c>
       <c r="B49" t="n">
-        <v>41.2</v>
+        <v>41.20000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>41.31439799775037</v>
+        <v>41.17435073852539</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1143979977503662</v>
+        <v>-0.02564926147461932</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01308690188929279</v>
+        <v>0.000657884614193391</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.5</v>
       </c>
       <c r="C50" t="n">
-        <v>41.49454877040444</v>
+        <v>41.48037338256836</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.00545122959555755</v>
+        <v>-0.01962661743164062</v>
       </c>
       <c r="E50" t="n">
-        <v>2.971590410348253e-05</v>
+        <v>0.0003852041118079796</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.8</v>
       </c>
       <c r="C51" t="n">
-        <v>42.02650361853983</v>
+        <v>42.27613067626953</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2265036185398372</v>
+        <v>0.4761306762695341</v>
       </c>
       <c r="E51" t="n">
-        <v>0.05130388921164011</v>
+        <v>0.2267004208848839</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>1.835059353520354</v>
+        <v>0.0128058624267382</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>7.9111339447674</v>
+        <v>1.993847182585832</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.158222678895348</v>
+        <v>0.03987694365171665</v>
       </c>
     </row>
   </sheetData>

--- a/partial/sliding_window_results_window_5.xlsx
+++ b/partial/sliding_window_results_window_5.xlsx
@@ -468,13 +468,13 @@
         <v>29.53999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>29.42570304870605</v>
+        <v>29.39377403259277</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1142969512939374</v>
+        <v>-0.1462259674072186</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01306379307508869</v>
+        <v>0.02138203354417696</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.55</v>
       </c>
       <c r="C3" t="n">
-        <v>29.50772666931152</v>
+        <v>29.51263236999512</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.04227333068847372</v>
+        <v>-0.03736763000487997</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001787034487497054</v>
+        <v>0.001396339772181606</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.75</v>
       </c>
       <c r="C4" t="n">
-        <v>29.72051811218262</v>
+        <v>29.71199607849121</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02948188781738281</v>
+        <v>-0.03800392150878906</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0008691817092767451</v>
+        <v>0.0014442980500462</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.84</v>
       </c>
       <c r="C5" t="n">
-        <v>29.87379264831543</v>
+        <v>29.88930320739746</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03379264831542628</v>
+        <v>0.04930320739745753</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001141943080170082</v>
+        <v>0.00243080625967671</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.81</v>
       </c>
       <c r="C6" t="n">
-        <v>29.8944149017334</v>
+        <v>29.90409660339355</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08441490173339616</v>
+        <v>0.09409660339355241</v>
       </c>
       <c r="E6" t="n">
-        <v>0.007125875634658931</v>
+        <v>0.0088541707702035</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.92</v>
       </c>
       <c r="C7" t="n">
-        <v>29.93996238708496</v>
+        <v>29.94115257263184</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01996238708495923</v>
+        <v>0.02115257263183423</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0003984968981297471</v>
+        <v>0.0004474313289450226</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.98</v>
       </c>
       <c r="C8" t="n">
-        <v>30.07316398620605</v>
+        <v>30.05060386657715</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09316398620605071</v>
+        <v>0.07060386657714446</v>
       </c>
       <c r="E8" t="n">
-        <v>0.008679528325801206</v>
+        <v>0.004984905975643216</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.03999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>30.21114921569824</v>
+        <v>30.19625663757324</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1711492156982501</v>
+        <v>0.1562566375732501</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02929205403412615</v>
+        <v>0.02441613678569805</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.21000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>30.26265525817871</v>
+        <v>30.24509239196777</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05265525817870298</v>
+        <v>0.03509239196776548</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002772576213865867</v>
+        <v>0.001231475974019291</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.22</v>
       </c>
       <c r="C11" t="n">
-        <v>30.34427452087402</v>
+        <v>30.33702659606934</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1242745208740246</v>
+        <v>0.1170265960693371</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01544415653846837</v>
+        <v>0.01369522418757578</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.38</v>
       </c>
       <c r="C12" t="n">
-        <v>30.36523246765137</v>
+        <v>30.36459922790527</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01476753234862827</v>
+        <v>-0.01540077209472202</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0002180800116677822</v>
+        <v>0.0002371837811135683</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.44</v>
       </c>
       <c r="C13" t="n">
-        <v>30.50981712341309</v>
+        <v>30.51727867126465</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06981712341308821</v>
+        <v>0.07727867126465071</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00487443072167839</v>
+        <v>0.005971993032429951</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.48</v>
       </c>
       <c r="C14" t="n">
-        <v>30.43168449401855</v>
+        <v>30.43563652038574</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04831550598144929</v>
+        <v>-0.04436347961426179</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002334388118243462</v>
+        <v>0.001968118323485021</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.69</v>
       </c>
       <c r="C15" t="n">
-        <v>30.43945121765137</v>
+        <v>30.45010948181152</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2505487823486305</v>
+        <v>-0.2398905181884743</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06277469233638144</v>
+        <v>0.05754746071673471</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.75</v>
       </c>
       <c r="C16" t="n">
-        <v>30.4976634979248</v>
+        <v>30.51659202575684</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2523365020751953</v>
+        <v>-0.2334079742431641</v>
       </c>
       <c r="E16" t="n">
-        <v>0.06367371027954505</v>
+        <v>0.05447928244029754</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.94</v>
       </c>
       <c r="C17" t="n">
-        <v>30.65968132019043</v>
+        <v>30.66981315612793</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.280318679809568</v>
+        <v>-0.270186843872068</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07857856225017913</v>
+        <v>0.07300093060154927</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.95</v>
       </c>
       <c r="C18" t="n">
-        <v>30.76798057556152</v>
+        <v>30.78048515319824</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1820194244384794</v>
+        <v>-0.1695148468017607</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03313107087291531</v>
+        <v>0.02873528328622438</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.02</v>
       </c>
       <c r="C19" t="n">
-        <v>31.12988090515137</v>
+        <v>31.13676261901855</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1098809051513712</v>
+        <v>0.1167626190185587</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01207381331688463</v>
+        <v>0.01363350920007308</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.12</v>
       </c>
       <c r="C20" t="n">
-        <v>31.24157524108887</v>
+        <v>31.25390434265137</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1215752410888626</v>
+        <v>0.1339043426513626</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01478053924581508</v>
+        <v>0.01793037298089354</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.28</v>
       </c>
       <c r="C21" t="n">
-        <v>31.3477611541748</v>
+        <v>31.3498592376709</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06776115417480355</v>
+        <v>0.0698592376708973</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004591574015101497</v>
+        <v>0.004880313087958917</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.38</v>
       </c>
       <c r="C22" t="n">
-        <v>31.23878288269043</v>
+        <v>31.23975944519043</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1412171173095658</v>
+        <v>-0.1402405548095658</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01994227422122366</v>
+        <v>0.01966741321329482</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.58</v>
       </c>
       <c r="C23" t="n">
-        <v>31.39718437194824</v>
+        <v>31.40480613708496</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1828156280517561</v>
+        <v>-0.1751938629150374</v>
       </c>
       <c r="E23" t="n">
-        <v>0.03342155385995804</v>
+        <v>0.0306928896030929</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.65000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>31.92793846130371</v>
+        <v>31.91418266296387</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2779384613037053</v>
+        <v>0.2641826629638615</v>
       </c>
       <c r="E24" t="n">
-        <v>0.07724978827187126</v>
+        <v>0.06979247941067725</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.88</v>
       </c>
       <c r="C25" t="n">
-        <v>32.41188430786133</v>
+        <v>32.41128158569336</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5318843078613327</v>
+        <v>0.5312815856933639</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2829009169491289</v>
+        <v>0.2822601232968552</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.28</v>
       </c>
       <c r="C26" t="n">
-        <v>32.36374282836914</v>
+        <v>32.35409927368164</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08374282836913949</v>
+        <v>0.07409927368163949</v>
       </c>
       <c r="E26" t="n">
-        <v>0.007012861303263154</v>
+        <v>0.005490702360146511</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.45</v>
       </c>
       <c r="C27" t="n">
-        <v>32.45510482788086</v>
+        <v>32.44964218139648</v>
       </c>
       <c r="D27" t="n">
-        <v>0.005104827880856533</v>
+        <v>-0.0003578186035184672</v>
       </c>
       <c r="E27" t="n">
-        <v>2.60592676931702e-05</v>
+        <v>1.28034153023906e-07</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.84999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>32.71161270141602</v>
+        <v>32.71015548706055</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1383872985839787</v>
+        <v>-0.1398445129394474</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01915104440937127</v>
+        <v>0.01955648779927128</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.90000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>32.94222640991211</v>
+        <v>32.92757034301758</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04222640991210369</v>
+        <v>0.02757034301757244</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001783069694065009</v>
+        <v>0.0007601238141066054</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>33.09999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>32.91791915893555</v>
+        <v>32.91290664672852</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1820808410644474</v>
+        <v>-0.1870933532714787</v>
       </c>
       <c r="E30" t="n">
-        <v>0.03315343268273657</v>
+        <v>0.03500392283836633</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>33.40000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>33.66357040405273</v>
+        <v>33.67569351196289</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2635704040527287</v>
+        <v>0.2756935119628849</v>
       </c>
       <c r="E31" t="n">
-        <v>0.06946935789251867</v>
+        <v>0.07600691253842938</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.7</v>
       </c>
       <c r="C32" t="n">
-        <v>33.69541549682617</v>
+        <v>33.69895553588867</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.004584503173830967</v>
+        <v>-0.001044464111330967</v>
       </c>
       <c r="E32" t="n">
-        <v>2.101766935086621e-05</v>
+        <v>1.090905279858387e-06</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>34.09999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>33.89573287963867</v>
+        <v>33.8870735168457</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2042671203613224</v>
+        <v>-0.2129264831542912</v>
       </c>
       <c r="E33" t="n">
-        <v>0.04172505646070699</v>
+        <v>0.04533768722845465</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>34.40000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>34.42705917358398</v>
+        <v>34.42622756958008</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02705917358397869</v>
+        <v>0.02622756958007244</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0007321988750478901</v>
+        <v>0.0006878854060775412</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>34.90000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>35.06875228881836</v>
+        <v>35.04362106323242</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1687522888183537</v>
+        <v>0.1436210632324162</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02847733498143306</v>
+        <v>0.02062700980400969</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>35.3</v>
       </c>
       <c r="C36" t="n">
-        <v>35.66774368286133</v>
+        <v>35.69187545776367</v>
       </c>
       <c r="D36" t="n">
-        <v>0.367743682861331</v>
+        <v>0.3918754577636747</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1352354162844152</v>
+        <v>0.1535663743974896</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>35.7</v>
       </c>
       <c r="C37" t="n">
-        <v>35.96606826782227</v>
+        <v>35.98324203491211</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2660682678222628</v>
+        <v>0.2832420349121065</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07079232314193935</v>
+        <v>0.08022605034115098</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>36.3</v>
       </c>
       <c r="C38" t="n">
-        <v>35.86572647094727</v>
+        <v>35.8718376159668</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.4342735290527315</v>
+        <v>-0.4281623840332003</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1885934980359137</v>
+        <v>0.1833230271009937</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>36.8</v>
       </c>
       <c r="C39" t="n">
-        <v>36.4784049987793</v>
+        <v>36.48615646362305</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.3215950012207003</v>
+        <v>-0.3138435363769503</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1034233448101422</v>
+        <v>0.09849776532559011</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>37.3</v>
       </c>
       <c r="C40" t="n">
-        <v>37.2089958190918</v>
+        <v>37.18130874633789</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.09100418090820028</v>
+        <v>-0.1186912536621065</v>
       </c>
       <c r="E40" t="n">
-        <v>0.008281760942772444</v>
+        <v>0.01408761369588252</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>37.90000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>37.99245071411133</v>
+        <v>38.00265884399414</v>
       </c>
       <c r="D41" t="n">
-        <v>0.09245071411132244</v>
+        <v>0.1026588439941349</v>
       </c>
       <c r="E41" t="n">
-        <v>0.008547134539693474</v>
+        <v>0.01053883825021214</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>38.5</v>
       </c>
       <c r="C42" t="n">
-        <v>38.43264389038086</v>
+        <v>38.46660232543945</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.06735610961914062</v>
+        <v>-0.03339767456054688</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004536845503025688</v>
+        <v>0.0011154046660522</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>38.90000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>39.07284927368164</v>
+        <v>39.07815933227539</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1728492736816349</v>
+        <v>0.1781593322753849</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02987687141226874</v>
+        <v>0.03174074767681102</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>39.40000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>39.60612869262695</v>
+        <v>39.5966682434082</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2061286926269474</v>
+        <v>0.1966682434081974</v>
       </c>
       <c r="E44" t="n">
-        <v>0.04248903792409458</v>
+        <v>0.038678397965266</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>39.90000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>39.64629745483398</v>
+        <v>39.66338729858398</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2537025451660213</v>
+        <v>-0.2366127014160213</v>
       </c>
       <c r="E45" t="n">
-        <v>0.06436498142371708</v>
+        <v>0.05598557047138725</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>40.09999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>39.90364456176758</v>
+        <v>39.8730354309082</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1963554382324162</v>
+        <v>-0.2269645690917912</v>
       </c>
       <c r="E46" t="n">
-        <v>0.03855545812344421</v>
+        <v>0.05151291562302246</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>40.59999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>40.41103744506836</v>
+        <v>40.35634231567383</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1889625549316349</v>
+        <v>-0.2436576843261662</v>
       </c>
       <c r="E47" t="n">
-        <v>0.03570684716629115</v>
+        <v>0.05936906713118965</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>40.90000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>40.64894485473633</v>
+        <v>40.60354232788086</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.2510551452636776</v>
+        <v>-0.2964576721191463</v>
       </c>
       <c r="E48" t="n">
-        <v>0.06302868596336623</v>
+        <v>0.08788715135830326</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.20000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>41.17435073852539</v>
+        <v>41.17261505126953</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.02564926147461932</v>
+        <v>-0.0273849487304787</v>
       </c>
       <c r="E49" t="n">
-        <v>0.000657884614193391</v>
+        <v>0.0007499354169709468</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.5</v>
       </c>
       <c r="C50" t="n">
-        <v>41.48037338256836</v>
+        <v>41.48384475708008</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.01962661743164062</v>
+        <v>-0.01615524291992188</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0003852041118079796</v>
+        <v>0.0002609918738016859</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.8</v>
       </c>
       <c r="C51" t="n">
-        <v>42.27613067626953</v>
+        <v>42.31372833251953</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4761306762695341</v>
+        <v>0.5137283325195341</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2267004208848839</v>
+        <v>0.263916799633301</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.0128058624267382</v>
+        <v>-0.04204566955568367</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>1.993847182585832</v>
+        <v>2.076008777278566</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.03987694365171665</v>
+        <v>0.04152017554557132</v>
       </c>
     </row>
   </sheetData>

--- a/partial/sliding_window_results_window_5.xlsx
+++ b/partial/sliding_window_results_window_5.xlsx
@@ -468,13 +468,13 @@
         <v>29.54</v>
       </c>
       <c r="C2" t="n">
-        <v>28.77159668602728</v>
+        <v>29.36188838516495</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7684033139727191</v>
+        <v>-0.1781116148350463</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5904436529242572</v>
+        <v>0.0317237473391479</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.55</v>
       </c>
       <c r="C3" t="n">
-        <v>29.90122115551857</v>
+        <v>29.78406929991331</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3512211555185694</v>
+        <v>0.2340692999133118</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1233563000837991</v>
+        <v>0.05478843716190792</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.75</v>
       </c>
       <c r="C4" t="n">
-        <v>29.66499987532517</v>
+        <v>29.73033275421328</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.08500012467483486</v>
+        <v>-0.01966724578672441</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007225021194737471</v>
+        <v>0.000386800556835429</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.84</v>
       </c>
       <c r="C5" t="n">
-        <v>30.5415314462977</v>
+        <v>30.29087302102019</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7015314462976967</v>
+        <v>0.4508730210201932</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4921463701445381</v>
+        <v>0.2032864810838756</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.81</v>
       </c>
       <c r="C6" t="n">
-        <v>30.41077861873373</v>
+        <v>30.16897008820004</v>
       </c>
       <c r="D6" t="n">
-        <v>0.600778618733731</v>
+        <v>0.3589700882000386</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3609349487276097</v>
+        <v>0.1288595242223435</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.92</v>
       </c>
       <c r="C7" t="n">
-        <v>30.24578231115241</v>
+        <v>29.90822042436572</v>
       </c>
       <c r="D7" t="n">
-        <v>0.325782311152409</v>
+        <v>-0.01177957563428578</v>
       </c>
       <c r="E7" t="n">
-        <v>0.106134114259805</v>
+        <v>0.0001387584021238592</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.98</v>
       </c>
       <c r="C8" t="n">
-        <v>29.62150842841587</v>
+        <v>29.83849563355738</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3584915715841319</v>
+        <v>-0.1415043664426214</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1285162068968608</v>
+        <v>0.02002348572232769</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.04</v>
       </c>
       <c r="C9" t="n">
-        <v>29.90509423108006</v>
+        <v>29.84181641502009</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1349057689199356</v>
+        <v>-0.1981835849799047</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01819956648787905</v>
+        <v>0.03927673335548712</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.21</v>
       </c>
       <c r="C10" t="n">
-        <v>29.48238977579566</v>
+        <v>29.92971577386612</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7276102242043372</v>
+        <v>-0.2802842261338796</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5294166383666858</v>
+        <v>0.07855924741946775</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.22</v>
       </c>
       <c r="C11" t="n">
-        <v>29.87582778898143</v>
+        <v>30.09036226924875</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3441722110185665</v>
+        <v>-0.1296377307512451</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1184545108374087</v>
+        <v>0.01680594123433231</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.38</v>
       </c>
       <c r="C12" t="n">
-        <v>29.71312480306775</v>
+        <v>30.19173587840176</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.6668751969322457</v>
+        <v>-0.188264121598241</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4447225282834215</v>
+        <v>0.03544337948115728</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.44</v>
       </c>
       <c r="C13" t="n">
-        <v>30.38637470091635</v>
+        <v>30.48602904936035</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.05362529908365588</v>
+        <v>0.04602904936034946</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002875672701811543</v>
+        <v>0.002118673385017487</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.48</v>
       </c>
       <c r="C14" t="n">
-        <v>30.35189786770854</v>
+        <v>30.3830970472716</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1281021322914597</v>
+        <v>-0.09690295272840288</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01641015629761865</v>
+        <v>0.009390182247483083</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.69</v>
       </c>
       <c r="C15" t="n">
-        <v>30.59799747773</v>
+        <v>30.40061040351136</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.09200252226999694</v>
+        <v>-0.2893895964886433</v>
       </c>
       <c r="E15" t="n">
-        <v>0.008464464104041284</v>
+        <v>0.08374633855585976</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.75</v>
       </c>
       <c r="C16" t="n">
-        <v>30.22668918367056</v>
+        <v>30.75093117328817</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.5233108163294418</v>
+        <v>0.0009311732881656098</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2738542104873867</v>
+        <v>8.670836925931538e-07</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.94</v>
       </c>
       <c r="C17" t="n">
-        <v>30.66051695140128</v>
+        <v>30.80748496167179</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2794830485987241</v>
+        <v>-0.1325150383282079</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07811077445403676</v>
+        <v>0.0175602353831264</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.95</v>
       </c>
       <c r="C18" t="n">
-        <v>30.93097425548262</v>
+        <v>30.92476076942891</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.01902574451737848</v>
+        <v>-0.02523923057109201</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0003619789544405575</v>
+        <v>0.0006370187598207454</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.02</v>
       </c>
       <c r="C19" t="n">
-        <v>31.52768362082061</v>
+        <v>31.14990447558944</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5076836208206146</v>
+        <v>0.1299044755894379</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2577426588495296</v>
+        <v>0.01687517277816685</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.12</v>
       </c>
       <c r="C20" t="n">
-        <v>31.8954276512661</v>
+        <v>31.28542580370341</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7754276512660958</v>
+        <v>0.1654258037034069</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6012880423480539</v>
+        <v>0.0273656965309181</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.28</v>
       </c>
       <c r="C21" t="n">
-        <v>32.01428376739394</v>
+        <v>31.1840818168263</v>
       </c>
       <c r="D21" t="n">
-        <v>0.73428376739394</v>
+        <v>-0.09591818317370127</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5391726510582378</v>
+        <v>0.009200297863343709</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.38</v>
       </c>
       <c r="C22" t="n">
-        <v>31.81616876501472</v>
+        <v>31.07793052009108</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4361687650147168</v>
+        <v>-0.3020694799089227</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1902431915744632</v>
+        <v>0.09124597069244708</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.58</v>
       </c>
       <c r="C23" t="n">
-        <v>32.19045575260361</v>
+        <v>31.27197894129191</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6104557526036132</v>
+        <v>-0.3080210587080927</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3726562258868438</v>
+        <v>0.09487697260765429</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.65</v>
       </c>
       <c r="C24" t="n">
-        <v>32.07760720707016</v>
+        <v>31.73957506555968</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4276072070701602</v>
+        <v>0.08957506555968564</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1828479235383429</v>
+        <v>0.008023692370021981</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.88</v>
       </c>
       <c r="C25" t="n">
-        <v>32.69388249805409</v>
+        <v>32.50872068394579</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8138824980540953</v>
+        <v>0.6287206839457902</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6624047206387744</v>
+        <v>0.3952896984212622</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.28</v>
       </c>
       <c r="C26" t="n">
-        <v>32.39883288137233</v>
+        <v>32.53122384196269</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1188328813723274</v>
+        <v>0.251223841962684</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01412125369524963</v>
+        <v>0.06311341877049162</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.45</v>
       </c>
       <c r="C27" t="n">
-        <v>32.50268193461038</v>
+        <v>32.88905978555466</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0526819346103764</v>
+        <v>0.4390597855546616</v>
       </c>
       <c r="E27" t="n">
-        <v>0.002775386234291975</v>
+        <v>0.1927734952913055</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.85</v>
       </c>
       <c r="C28" t="n">
-        <v>32.74211580690621</v>
+        <v>33.12466019119131</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1078841930937884</v>
+        <v>0.2746601911913089</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01163899911949782</v>
+        <v>0.07543822062524637</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.9</v>
       </c>
       <c r="C29" t="n">
-        <v>32.8855232564657</v>
+        <v>33.1876042672486</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.01447674353430273</v>
+        <v>0.2876042672486037</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0002095761033579758</v>
+        <v>0.08271621453960623</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>33.1</v>
       </c>
       <c r="C30" t="n">
-        <v>32.91331340906391</v>
+        <v>33.31342044662783</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1866865909360911</v>
+        <v>0.2134204466278291</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0348518832353394</v>
+        <v>0.04554828703882205</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>33.4</v>
       </c>
       <c r="C31" t="n">
-        <v>33.83299115305665</v>
+        <v>33.71395351623086</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4329911530566477</v>
+        <v>0.3139535162308604</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1874813386253253</v>
+        <v>0.09856681035372114</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.7</v>
       </c>
       <c r="C32" t="n">
-        <v>33.74871538907802</v>
+        <v>33.72374872713567</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0487153890780192</v>
+        <v>0.02374872713566845</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002373189133022792</v>
+        <v>0.0005640020405644348</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>34.1</v>
       </c>
       <c r="C33" t="n">
-        <v>33.8940528257012</v>
+        <v>33.79202561111252</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2059471742987995</v>
+        <v>-0.3079743888874802</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0424142386016601</v>
+        <v>0.09484822421061688</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>34.4</v>
       </c>
       <c r="C34" t="n">
-        <v>34.07701773910097</v>
+        <v>34.19723309020993</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.3229822608990318</v>
+        <v>-0.2027669097900642</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1043175408554503</v>
+        <v>0.04111441970581203</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>34.9</v>
       </c>
       <c r="C35" t="n">
-        <v>34.6658757599753</v>
+        <v>34.41133269554031</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2341242400246983</v>
+        <v>-0.488667304459689</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05481415976714256</v>
+        <v>0.2387957344478984</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>35.3</v>
       </c>
       <c r="C36" t="n">
-        <v>35.7840420212037</v>
+        <v>35.51423373159818</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4840420212036989</v>
+        <v>0.2142337315981848</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2342966782909621</v>
+        <v>0.04589609175448309</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>35.7</v>
       </c>
       <c r="C37" t="n">
-        <v>36.19699942473285</v>
+        <v>35.77938616129119</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4969994247328486</v>
+        <v>0.07938616129118259</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2470084281847825</v>
+        <v>0.006302162604549657</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>36.3</v>
       </c>
       <c r="C38" t="n">
-        <v>36.38994972819609</v>
+        <v>36.05415544559393</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08994972819608904</v>
+        <v>-0.2458445544060694</v>
       </c>
       <c r="E38" t="n">
-        <v>0.008090953602550296</v>
+        <v>0.06043954493111884</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>36.8</v>
       </c>
       <c r="C39" t="n">
-        <v>36.97987452478498</v>
+        <v>36.66889473158334</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1798745247849851</v>
+        <v>-0.131105268416654</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03235484466662422</v>
+        <v>0.0171885914066029</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>37.3</v>
       </c>
       <c r="C40" t="n">
-        <v>37.02470801298504</v>
+        <v>36.75928092501331</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2752919870149526</v>
+        <v>-0.5407190749866899</v>
       </c>
       <c r="E40" t="n">
-        <v>0.07578567811464083</v>
+        <v>0.2923771180544616</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>37.9</v>
       </c>
       <c r="C41" t="n">
-        <v>37.96974537549301</v>
+        <v>37.85027403718746</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06974537549300663</v>
+        <v>-0.04972596281253772</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00486441740266049</v>
+        <v>0.002472671377633884</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>38.5</v>
       </c>
       <c r="C42" t="n">
-        <v>38.60573691186258</v>
+        <v>38.61013807581099</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1057369118625786</v>
+        <v>0.110138075810994</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01118029453023472</v>
+        <v>0.01213039574334826</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>38.9</v>
       </c>
       <c r="C43" t="n">
-        <v>39.01080985958171</v>
+        <v>39.00815598828223</v>
       </c>
       <c r="D43" t="n">
-        <v>0.110809859581714</v>
+        <v>0.1081559882822347</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01227882498051917</v>
+        <v>0.01169771780130689</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>39.4</v>
       </c>
       <c r="C44" t="n">
-        <v>39.42546228338429</v>
+        <v>39.39532542033854</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02546228338429302</v>
+        <v>-0.004674579661461564</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0006483278751420442</v>
+        <v>2.185169501135011e-05</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>39.9</v>
       </c>
       <c r="C45" t="n">
-        <v>39.7220449143099</v>
+        <v>39.65916224730229</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.177955085690094</v>
+        <v>-0.2408377526977077</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0316680125229687</v>
+        <v>0.0580028231244822</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>40.1</v>
       </c>
       <c r="C46" t="n">
-        <v>39.88261139275777</v>
+        <v>39.93191622206452</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2173886072422349</v>
+        <v>-0.1680837779354789</v>
       </c>
       <c r="E46" t="n">
-        <v>0.04725780655871865</v>
+        <v>0.02825215640506339</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>40.6</v>
       </c>
       <c r="C47" t="n">
-        <v>40.06105682113947</v>
+        <v>40.14516499738765</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.5389431788605279</v>
+        <v>-0.4548350026123487</v>
       </c>
       <c r="E47" t="n">
-        <v>0.290459750040291</v>
+        <v>0.2068748796013752</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>40.9</v>
       </c>
       <c r="C48" t="n">
-        <v>40.36163272153543</v>
+        <v>40.46227174547302</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.5383672784645697</v>
+        <v>-0.4377282545269807</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2898393265213475</v>
+        <v>0.1916060248112372</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.2</v>
       </c>
       <c r="C49" t="n">
-        <v>41.31439799775037</v>
+        <v>41.57788098621841</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1143979977503662</v>
+        <v>0.3778809862184076</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01308690188929279</v>
+        <v>0.1427940397453964</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.5</v>
       </c>
       <c r="C50" t="n">
-        <v>41.49454877040444</v>
+        <v>41.69234694904898</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.00545122959555755</v>
+        <v>0.1923469490489822</v>
       </c>
       <c r="E50" t="n">
-        <v>2.971590410348253e-05</v>
+        <v>0.03699734880845176</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.8</v>
       </c>
       <c r="C51" t="n">
-        <v>42.02650361853983</v>
+        <v>42.12059394226941</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2265036185398372</v>
+        <v>0.3205939422694115</v>
       </c>
       <c r="E51" t="n">
-        <v>0.05130388921164011</v>
+        <v>0.1027804758198428</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>1.835059353520354</v>
+        <v>-0.3595455662107803</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>7.9111339447674</v>
+        <v>3.51493607336627</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.158222678895348</v>
+        <v>0.07029872146732541</v>
       </c>
     </row>
   </sheetData>
